--- a/excell/new_data.xlsx
+++ b/excell/new_data.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD" numFmtId="165"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -56,11 +59,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -404,10 +408,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2018-01-06 00:00:00</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>43106</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -435,10 +437,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2018-01-23 00:00:00</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>43123</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -466,10 +466,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2018-02-09 00:00:00</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>43140</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -497,10 +495,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2018-02-26 00:00:00</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>43157</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -528,10 +524,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2018-03-15 00:00:00</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>43174</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -559,10 +553,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2018-04-01 00:00:00</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>43191</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -590,10 +582,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2018-04-18 00:00:00</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>43208</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -621,10 +611,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2018-05-05 00:00:00</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>43225</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -652,10 +640,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2018-05-22 00:00:00</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>43242</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -683,10 +669,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2018-06-08 00:00:00</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>43259</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -714,10 +698,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2018-06-25 00:00:00</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>43276</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -745,10 +727,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2018-07-12 00:00:00</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>43293</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -776,10 +756,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2018-07-29 00:00:00</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>43310</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -807,10 +785,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2018-08-15 00:00:00</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>43327</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -838,10 +814,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2018-09-01 00:00:00</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>43344</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -869,10 +843,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2018-09-18 00:00:00</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>43361</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -900,10 +872,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2018-10-05 00:00:00</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>43378</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -931,10 +901,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2018-10-22 00:00:00</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>43395</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -962,10 +930,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2018-11-08 00:00:00</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>43412</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -993,10 +959,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2018-11-25 00:00:00</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>43429</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1024,10 +988,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2018-12-12 00:00:00</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>43446</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1055,10 +1017,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2018-12-29 00:00:00</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>43463</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1086,10 +1046,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2019-01-15 00:00:00</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>43480</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1117,10 +1075,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2019-02-01 00:00:00</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>43497</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1148,10 +1104,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2019-02-18 00:00:00</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>43514</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1179,10 +1133,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2019-03-07 00:00:00</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>43531</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1210,10 +1162,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2019-03-24 00:00:00</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>43548</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1241,10 +1191,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2019-04-10 00:00:00</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>43565</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1272,10 +1220,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2019-04-27 00:00:00</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>43582</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1303,10 +1249,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2019-05-14 00:00:00</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>43599</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1334,10 +1278,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2019-05-31 00:00:00</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>43616</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1365,10 +1307,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2019-06-17 00:00:00</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>43633</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1396,10 +1336,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2019-07-04 00:00:00</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>43650</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1427,10 +1365,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2019-07-21 00:00:00</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>43667</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1458,10 +1394,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2019-08-07 00:00:00</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>43684</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1489,10 +1423,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2019-08-24 00:00:00</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>43701</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1520,10 +1452,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2019-09-10 00:00:00</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>43718</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1551,10 +1481,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2019-09-27 00:00:00</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>43735</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1582,10 +1510,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2019-10-14 00:00:00</t>
-        </is>
+      <c r="A40" s="2" t="n">
+        <v>43752</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1613,10 +1539,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2019-10-31 00:00:00</t>
-        </is>
+      <c r="A41" s="2" t="n">
+        <v>43769</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1644,10 +1568,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2019-11-17 00:00:00</t>
-        </is>
+      <c r="A42" s="2" t="n">
+        <v>43786</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1675,10 +1597,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2019-12-04 00:00:00</t>
-        </is>
+      <c r="A43" s="2" t="n">
+        <v>43803</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1706,10 +1626,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2019-12-21 00:00:00</t>
-        </is>
+      <c r="A44" s="2" t="n">
+        <v>43820</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
